--- a/public/samplefiles/importproducts.xlsx
+++ b/public/samplefiles/importproducts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Sku Code</t>
   </si>
@@ -76,6 +76,27 @@
     <t xml:space="preserve">Related Products</t>
   </si>
   <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memebership_p_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase price</t>
+  </si>
+  <si>
     <t xml:space="preserve">DAR-002781-test</t>
   </si>
   <si>
@@ -85,7 +106,7 @@
     <t xml:space="preserve">Test Print Edible</t>
   </si>
   <si>
-    <t xml:space="preserve">6, 14</t>
+    <t xml:space="preserve">28, 29</t>
   </si>
   <si>
     <t xml:space="preserve">Test Product Import</t>
@@ -114,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,6 +168,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -201,7 +229,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,11 +246,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,15 +279,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="26.12"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -306,67 +345,106 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="n">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>222222026661151</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="6" t="n">
         <v>1500</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>11100011</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="V2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>11100011</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>27</v>
+      <c r="W2" s="6" t="n">
+        <v>768</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>999</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
